--- a/biology/Biochimie/Chymotrypsine/Chymotrypsine.xlsx
+++ b/biology/Biochimie/Chymotrypsine/Chymotrypsine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La chymotrypsine est une peptidase digestive sécrétée par le pancréas, de la famille des protéases à sérine, qui catalyse des protéolyses. Elle est codée par deux gènes situés sur le chromosome 16, dont le produit est une proenzyme appelée chymotrypsinogène, qui doit être activé ultérieurement pour donner la chymotrypsine elle-même. Cette enzyme hydrolyse préférentiellement les protéines au niveau des liaisons peptidiques en aval d'un résidu de tyrosine, de tryptophane, de phénylalanine, de méthionine ou de leucine. Le site actif de la chymotrypsine comporte une poche hydrophobe dans laquelle se loge l'acide aminé du substrat. Ceci permet le positionnement de la liaison à cliver en regard de la sérine catalytique.
@@ -512,7 +524,9 @@
           <t>Synthèse et activation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La chymotrypsine est produite par le pancréas sous une forme inactive appelée le chymotrypsinogène. L'activation est provoquée par la trypsine qui coupe cette molécule en deux chaînes, puis par la chymotrypsine elle-même lors d'une trans-protéolyse, donnant à la fin une structure globulaire compacte de trois chaînes reliées par deux ponts disulfures et repliées en 2 domaines de 120 acides aminés.
 Ces domaines adoptent la conformation d'un tonneau β formé de 6 brins β.
@@ -545,7 +559,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La chymotrypsine intervient dans la protéolyse des protéines du système digestif des mammifères et autres êtres vivants. Elle catalyse le clivage des chaînes polypeptidiques par hydrolyse, mécanisme au départ extrêmement lent sans un activateur.
 La chymotrypsine attaque les groupes carbonyles potentiellement nucléophiles impliqués dans une liaison peptidique grâce à la sérine 195, laquelle se lie à son substrat pour former un intermédiaire substrat-enzyme covalent. Le site actif de l'enzyme fait également intervenir les acides aminés His57, Asp102 et Gly193.
@@ -580,7 +596,9 @@
           <t>Séquence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Séquence du chymotrypsinogène B1 (gènes 16q23 et 16q24.1)
         10          20          30          40          50          60
